--- a/0_0_Data/3_Naive_Forecaster_Data/0_Combined_QoQ_Forecasts/dt_full_qoqAVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/0_Combined_QoQ_Forecasts/dt_full_qoqAVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES232"/>
+  <dimension ref="A1:ET233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1">
         <v>32508</v>
       </c>
@@ -820,8 +820,11 @@
       <c r="ES1" s="1">
         <v>45891</v>
       </c>
+      <c r="ET1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="A2" s="1">
         <v>25749</v>
       </c>
@@ -1269,8 +1272,11 @@
       <c r="ES2">
         <v>3.949077682514924</v>
       </c>
+      <c r="ET2">
+        <v>3.949077682514924</v>
+      </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1">
         <v>25841</v>
       </c>
@@ -1718,8 +1724,11 @@
       <c r="ES3">
         <v>1.874531367158206</v>
       </c>
+      <c r="ET3">
+        <v>1.874531367158206</v>
+      </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1">
         <v>25933</v>
       </c>
@@ -2167,8 +2176,11 @@
       <c r="ES4">
         <v>0.8586849852796945</v>
       </c>
+      <c r="ET4">
+        <v>0.8586849852796945</v>
+      </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1">
         <v>26023</v>
       </c>
@@ -2616,8 +2628,11 @@
       <c r="ES5">
         <v>-1.945998540501086</v>
       </c>
+      <c r="ET5">
+        <v>-1.945998540501086</v>
+      </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1">
         <v>26114</v>
       </c>
@@ -3065,8 +3080,11 @@
       <c r="ES6">
         <v>2.133465641280074</v>
       </c>
+      <c r="ET6">
+        <v>2.133465641280074</v>
+      </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1">
         <v>26206</v>
       </c>
@@ -3514,8 +3532,11 @@
       <c r="ES7">
         <v>1.700267184843332</v>
       </c>
+      <c r="ET7">
+        <v>1.700267184843332</v>
+      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1">
         <v>26298</v>
       </c>
@@ -3963,8 +3984,11 @@
       <c r="ES8">
         <v>-0.09553379508001679</v>
       </c>
+      <c r="ET8">
+        <v>-0.09553379508001679</v>
+      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1">
         <v>26389</v>
       </c>
@@ -4412,8 +4436,11 @@
       <c r="ES9">
         <v>0.0956251494143032</v>
       </c>
+      <c r="ET9">
+        <v>0.0956251494143032</v>
+      </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1">
         <v>26480</v>
       </c>
@@ -4861,8 +4888,11 @@
       <c r="ES10">
         <v>1.647957965130175</v>
       </c>
+      <c r="ET10">
+        <v>1.647957965130175</v>
+      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1">
         <v>26572</v>
       </c>
@@ -5310,8 +5340,11 @@
       <c r="ES11">
         <v>2.32612781954886</v>
       </c>
+      <c r="ET11">
+        <v>2.32612781954886</v>
+      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1">
         <v>26664</v>
       </c>
@@ -5759,8 +5792,11 @@
       <c r="ES12">
         <v>1.538461538461537</v>
       </c>
+      <c r="ET12">
+        <v>1.538461538461537</v>
+      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1">
         <v>26754</v>
       </c>
@@ -6208,8 +6244,11 @@
       <c r="ES13">
         <v>1.447308909995474</v>
       </c>
+      <c r="ET13">
+        <v>1.447308909995474</v>
+      </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1">
         <v>26845</v>
       </c>
@@ -6657,8 +6696,11 @@
       <c r="ES14">
         <v>0.6910387873384027</v>
       </c>
+      <c r="ET14">
+        <v>0.6910387873384027</v>
+      </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1">
         <v>26937</v>
       </c>
@@ -7106,8 +7148,11 @@
       <c r="ES15">
         <v>0.3542174009298003</v>
       </c>
+      <c r="ET15">
+        <v>0.3542174009298003</v>
+      </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1">
         <v>27029</v>
       </c>
@@ -7555,8 +7600,11 @@
       <c r="ES16">
         <v>0.2206044562100243</v>
       </c>
+      <c r="ET16">
+        <v>0.2206044562100243</v>
+      </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:150">
       <c r="A17" s="1">
         <v>27119</v>
       </c>
@@ -8004,8 +8052,11 @@
       <c r="ES17">
         <v>0.8364516839093197</v>
       </c>
+      <c r="ET17">
+        <v>0.8364516839093197</v>
+      </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:150">
       <c r="A18" s="1">
         <v>27210</v>
       </c>
@@ -8453,8 +8504,11 @@
       <c r="ES18">
         <v>-0.08731717965510374</v>
       </c>
+      <c r="ET18">
+        <v>-0.08731717965510374</v>
+      </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:150">
       <c r="A19" s="1">
         <v>27302</v>
       </c>
@@ -8902,8 +8956,11 @@
       <c r="ES19">
         <v>0.02184837229626946</v>
       </c>
+      <c r="ET19">
+        <v>0.02184837229626946</v>
+      </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:150">
       <c r="A20" s="1">
         <v>27394</v>
       </c>
@@ -9351,8 +9408,11 @@
       <c r="ES20">
         <v>-1.245085190039323</v>
       </c>
+      <c r="ET20">
+        <v>-1.245085190039323</v>
+      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:150">
       <c r="A21" s="1">
         <v>27484</v>
       </c>
@@ -9800,8 +9860,11 @@
       <c r="ES21">
         <v>-0.5750940057509286</v>
       </c>
+      <c r="ET21">
+        <v>-0.5750940057509286</v>
+      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:150">
       <c r="A22" s="1">
         <v>27575</v>
       </c>
@@ -10249,8 +10312,11 @@
       <c r="ES22">
         <v>-0.5116796440489622</v>
       </c>
+      <c r="ET22">
+        <v>-0.5116796440489622</v>
+      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:150">
       <c r="A23" s="1">
         <v>27667</v>
       </c>
@@ -10698,8 +10764,11 @@
       <c r="ES23">
         <v>1.09570661896244</v>
       </c>
+      <c r="ET23">
+        <v>1.09570661896244</v>
+      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:150">
       <c r="A24" s="1">
         <v>27759</v>
       </c>
@@ -11147,8 +11216,11 @@
       <c r="ES24">
         <v>1.968591019685906</v>
       </c>
+      <c r="ET24">
+        <v>1.968591019685906</v>
+      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:150">
       <c r="A25" s="1">
         <v>27850</v>
       </c>
@@ -11596,8 +11668,11 @@
       <c r="ES25">
         <v>0.8676789587852535</v>
       </c>
+      <c r="ET25">
+        <v>0.8676789587852535</v>
+      </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:150">
       <c r="A26" s="1">
         <v>27941</v>
       </c>
@@ -12045,8 +12120,11 @@
       <c r="ES26">
         <v>1.505376344086021</v>
       </c>
+      <c r="ET26">
+        <v>1.505376344086021</v>
+      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:150">
       <c r="A27" s="1">
         <v>28033</v>
       </c>
@@ -12494,8 +12572,11 @@
       <c r="ES27">
         <v>0.02118644067797147</v>
       </c>
+      <c r="ET27">
+        <v>0.02118644067797147</v>
+      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:150">
       <c r="A28" s="1">
         <v>28125</v>
       </c>
@@ -12943,8 +13024,11 @@
       <c r="ES28">
         <v>1.864011861893672</v>
       </c>
+      <c r="ET28">
+        <v>1.864011861893672</v>
+      </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:150">
       <c r="A29" s="1">
         <v>28215</v>
       </c>
@@ -13392,8 +13476,11 @@
       <c r="ES29">
         <v>0.873362445414832</v>
       </c>
+      <c r="ET29">
+        <v>0.873362445414832</v>
+      </c>
     </row>
-    <row r="30" spans="1:149">
+    <row r="30" spans="1:150">
       <c r="A30" s="1">
         <v>28306</v>
       </c>
@@ -13841,8 +13928,11 @@
       <c r="ES30">
         <v>0.5565862708719943</v>
       </c>
+      <c r="ET30">
+        <v>0.5565862708719943</v>
+      </c>
     </row>
-    <row r="31" spans="1:149">
+    <row r="31" spans="1:150">
       <c r="A31" s="1">
         <v>28398</v>
       </c>
@@ -14290,8 +14380,11 @@
       <c r="ES31">
         <v>-0.04100041000411042</v>
       </c>
+      <c r="ET31">
+        <v>-0.04100041000411042</v>
+      </c>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:150">
       <c r="A32" s="1">
         <v>28490</v>
       </c>
@@ -14739,8 +14832,11 @@
       <c r="ES32">
         <v>1.722723543888447</v>
       </c>
+      <c r="ET32">
+        <v>1.722723543888447</v>
+      </c>
     </row>
-    <row r="33" spans="1:149">
+    <row r="33" spans="1:150">
       <c r="A33" s="1">
         <v>28580</v>
       </c>
@@ -15188,8 +15284,11 @@
       <c r="ES33">
         <v>0.4032258064516004</v>
       </c>
+      <c r="ET33">
+        <v>0.4032258064516004</v>
+      </c>
     </row>
-    <row r="34" spans="1:149">
+    <row r="34" spans="1:150">
       <c r="A34" s="1">
         <v>28671</v>
       </c>
@@ -15637,8 +15736,11 @@
       <c r="ES34">
         <v>0.4216867469879588</v>
       </c>
+      <c r="ET34">
+        <v>0.4216867469879588</v>
+      </c>
     </row>
-    <row r="35" spans="1:149">
+    <row r="35" spans="1:150">
       <c r="A35" s="1">
         <v>28763</v>
       </c>
@@ -16086,8 +16188,11 @@
       <c r="ES35">
         <v>1.29974005198959</v>
       </c>
+      <c r="ET35">
+        <v>1.29974005198959</v>
+      </c>
     </row>
-    <row r="36" spans="1:149">
+    <row r="36" spans="1:150">
       <c r="A36" s="1">
         <v>28855</v>
       </c>
@@ -16535,8 +16640,11 @@
       <c r="ES36">
         <v>1.164626924595356</v>
       </c>
+      <c r="ET36">
+        <v>1.164626924595356</v>
+      </c>
     </row>
-    <row r="37" spans="1:149">
+    <row r="37" spans="1:150">
       <c r="A37" s="1">
         <v>28945</v>
       </c>
@@ -16984,8 +17092,11 @@
       <c r="ES37">
         <v>0.1365853658536516</v>
       </c>
+      <c r="ET37">
+        <v>0.1365853658536516</v>
+      </c>
     </row>
-    <row r="38" spans="1:149">
+    <row r="38" spans="1:150">
       <c r="A38" s="1">
         <v>29036</v>
       </c>
@@ -17433,8 +17544,11 @@
       <c r="ES38">
         <v>3.098207326578328</v>
       </c>
+      <c r="ET38">
+        <v>3.098207326578328</v>
+      </c>
     </row>
-    <row r="39" spans="1:149">
+    <row r="39" spans="1:150">
       <c r="A39" s="1">
         <v>29128</v>
       </c>
@@ -17882,8 +17996,11 @@
       <c r="ES39">
         <v>0</v>
       </c>
+      <c r="ET39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:149">
+    <row r="40" spans="1:150">
       <c r="A40" s="1">
         <v>29220</v>
       </c>
@@ -18331,8 +18448,11 @@
       <c r="ES40">
         <v>0.6237006237006341</v>
       </c>
+      <c r="ET40">
+        <v>0.6237006237006341</v>
+      </c>
     </row>
-    <row r="41" spans="1:149">
+    <row r="41" spans="1:150">
       <c r="A41" s="1">
         <v>29311</v>
       </c>
@@ -18780,8 +18900,11 @@
       <c r="ES41">
         <v>0.7888805409466429</v>
       </c>
+      <c r="ET41">
+        <v>0.7888805409466429</v>
+      </c>
     </row>
-    <row r="42" spans="1:149">
+    <row r="42" spans="1:150">
       <c r="A42" s="1">
         <v>29402</v>
       </c>
@@ -19229,8 +19352,11 @@
       <c r="ES42">
         <v>-0.6522549385016704</v>
       </c>
+      <c r="ET42">
+        <v>-0.6522549385016704</v>
+      </c>
     </row>
-    <row r="43" spans="1:149">
+    <row r="43" spans="1:150">
       <c r="A43" s="1">
         <v>29494</v>
       </c>
@@ -19678,8 +19804,11 @@
       <c r="ES43">
         <v>-0.412680547739634</v>
       </c>
+      <c r="ET43">
+        <v>-0.412680547739634</v>
+      </c>
     </row>
-    <row r="44" spans="1:149">
+    <row r="44" spans="1:150">
       <c r="A44" s="1">
         <v>29586</v>
       </c>
@@ -20127,8 +20256,11 @@
       <c r="ES44">
         <v>-0.1318515728008974</v>
       </c>
+      <c r="ET44">
+        <v>-0.1318515728008974</v>
+      </c>
     </row>
-    <row r="45" spans="1:149">
+    <row r="45" spans="1:150">
       <c r="A45" s="1">
         <v>29676</v>
       </c>
@@ -20576,8 +20708,11 @@
       <c r="ES45">
         <v>1.207091663523183</v>
       </c>
+      <c r="ET45">
+        <v>1.207091663523183</v>
+      </c>
     </row>
-    <row r="46" spans="1:149">
+    <row r="46" spans="1:150">
       <c r="A46" s="1">
         <v>29767</v>
       </c>
@@ -21025,8 +21160,11 @@
       <c r="ES46">
         <v>-0.2609019754006576</v>
       </c>
+      <c r="ET46">
+        <v>-0.2609019754006576</v>
+      </c>
     </row>
-    <row r="47" spans="1:149">
+    <row r="47" spans="1:150">
       <c r="A47" s="1">
         <v>29859</v>
       </c>
@@ -21474,8 +21612,11 @@
       <c r="ES47">
         <v>0.2802690582959688</v>
       </c>
+      <c r="ET47">
+        <v>0.2802690582959688</v>
+      </c>
     </row>
-    <row r="48" spans="1:149">
+    <row r="48" spans="1:150">
       <c r="A48" s="1">
         <v>29951</v>
       </c>
@@ -21923,8 +22064,11 @@
       <c r="ES48">
         <v>-0.111794298490792</v>
       </c>
+      <c r="ET48">
+        <v>-0.111794298490792</v>
+      </c>
     </row>
-    <row r="49" spans="1:149">
+    <row r="49" spans="1:150">
       <c r="A49" s="1">
         <v>30041</v>
       </c>
@@ -22372,8 +22516,11 @@
       <c r="ES49">
         <v>0.4103711994030944</v>
       </c>
+      <c r="ET49">
+        <v>0.4103711994030944</v>
+      </c>
     </row>
-    <row r="50" spans="1:149">
+    <row r="50" spans="1:150">
       <c r="A50" s="1">
         <v>30132</v>
       </c>
@@ -22821,8 +22968,11 @@
       <c r="ES50">
         <v>-0.6316180568456136</v>
       </c>
+      <c r="ET50">
+        <v>-0.6316180568456136</v>
+      </c>
     </row>
-    <row r="51" spans="1:149">
+    <row r="51" spans="1:150">
       <c r="A51" s="1">
         <v>30224</v>
       </c>
@@ -23270,8 +23420,11 @@
       <c r="ES51">
         <v>-0.9534492428491463</v>
       </c>
+      <c r="ET51">
+        <v>-0.9534492428491463</v>
+      </c>
     </row>
-    <row r="52" spans="1:149">
+    <row r="52" spans="1:150">
       <c r="A52" s="1">
         <v>30316</v>
       </c>
@@ -23719,8 +23872,11 @@
       <c r="ES52">
         <v>0.20762551906381</v>
       </c>
+      <c r="ET52">
+        <v>0.20762551906381</v>
+      </c>
     </row>
-    <row r="53" spans="1:149">
+    <row r="53" spans="1:150">
       <c r="A53" s="1">
         <v>30406</v>
       </c>
@@ -24168,8 +24324,11 @@
       <c r="ES53">
         <v>0.9229610096063218</v>
       </c>
+      <c r="ET53">
+        <v>0.9229610096063218</v>
+      </c>
     </row>
-    <row r="54" spans="1:149">
+    <row r="54" spans="1:150">
       <c r="A54" s="1">
         <v>30497</v>
       </c>
@@ -24617,8 +24776,11 @@
       <c r="ES54">
         <v>1.063829787234047</v>
       </c>
+      <c r="ET54">
+        <v>1.063829787234047</v>
+      </c>
     </row>
-    <row r="55" spans="1:149">
+    <row r="55" spans="1:150">
       <c r="A55" s="1">
         <v>30589</v>
       </c>
@@ -25066,8 +25228,11 @@
       <c r="ES55">
         <v>-0.2400738688827284</v>
       </c>
+      <c r="ET55">
+        <v>-0.2400738688827284</v>
+      </c>
     </row>
-    <row r="56" spans="1:149">
+    <row r="56" spans="1:150">
       <c r="A56" s="1">
         <v>30681</v>
       </c>
@@ -25515,8 +25680,11 @@
       <c r="ES56">
         <v>1.388374676045919</v>
       </c>
+      <c r="ET56">
+        <v>1.388374676045919</v>
+      </c>
     </row>
-    <row r="57" spans="1:149">
+    <row r="57" spans="1:150">
       <c r="A57" s="1">
         <v>30772</v>
       </c>
@@ -25964,8 +26132,11 @@
       <c r="ES57">
         <v>1.314588278254514</v>
       </c>
+      <c r="ET57">
+        <v>1.314588278254514</v>
+      </c>
     </row>
-    <row r="58" spans="1:149">
+    <row r="58" spans="1:150">
       <c r="A58" s="1">
         <v>30863</v>
       </c>
@@ -26413,8 +26584,11 @@
       <c r="ES58">
         <v>-1.567850063074441</v>
       </c>
+      <c r="ET58">
+        <v>-1.567850063074441</v>
+      </c>
     </row>
-    <row r="59" spans="1:149">
+    <row r="59" spans="1:150">
       <c r="A59" s="1">
         <v>30955</v>
       </c>
@@ -26862,8 +27036,11 @@
       <c r="ES59">
         <v>2.72793848407177</v>
       </c>
+      <c r="ET59">
+        <v>2.72793848407177</v>
+      </c>
     </row>
-    <row r="60" spans="1:149">
+    <row r="60" spans="1:150">
       <c r="A60" s="1">
         <v>31047</v>
       </c>
@@ -27311,8 +27488,11 @@
       <c r="ES60">
         <v>0.8376403493138448</v>
       </c>
+      <c r="ET60">
+        <v>0.8376403493138448</v>
+      </c>
     </row>
-    <row r="61" spans="1:149">
+    <row r="61" spans="1:150">
       <c r="A61" s="1">
         <v>31137</v>
       </c>
@@ -27760,8 +27940,11 @@
       <c r="ES61">
         <v>-0.5302226935312794</v>
       </c>
+      <c r="ET61">
+        <v>-0.5302226935312794</v>
+      </c>
     </row>
-    <row r="62" spans="1:149">
+    <row r="62" spans="1:150">
       <c r="A62" s="1">
         <v>31228</v>
       </c>
@@ -28209,8 +28392,11 @@
       <c r="ES62">
         <v>0.9772565742714947</v>
       </c>
+      <c r="ET62">
+        <v>0.9772565742714947</v>
+      </c>
     </row>
-    <row r="63" spans="1:149">
+    <row r="63" spans="1:150">
       <c r="A63" s="1">
         <v>31320</v>
       </c>
@@ -28658,8 +28844,11 @@
       <c r="ES63">
         <v>1.302129157135321</v>
       </c>
+      <c r="ET63">
+        <v>1.302129157135321</v>
+      </c>
     </row>
-    <row r="64" spans="1:149">
+    <row r="64" spans="1:150">
       <c r="A64" s="1">
         <v>31412</v>
       </c>
@@ -29107,8 +29296,11 @@
       <c r="ES64">
         <v>0.6079555323953507</v>
       </c>
+      <c r="ET64">
+        <v>0.6079555323953507</v>
+      </c>
     </row>
-    <row r="65" spans="1:149">
+    <row r="65" spans="1:150">
       <c r="A65" s="1">
         <v>31502</v>
       </c>
@@ -29556,8 +29748,11 @@
       <c r="ES65">
         <v>-0.5697513812154668</v>
       </c>
+      <c r="ET65">
+        <v>-0.5697513812154668</v>
+      </c>
     </row>
-    <row r="66" spans="1:149">
+    <row r="66" spans="1:150">
       <c r="A66" s="1">
         <v>31593</v>
       </c>
@@ -30005,8 +30200,11 @@
       <c r="ES66">
         <v>1.163396422990089</v>
       </c>
+      <c r="ET66">
+        <v>1.163396422990089</v>
+      </c>
     </row>
-    <row r="67" spans="1:149">
+    <row r="67" spans="1:150">
       <c r="A67" s="1">
         <v>31685</v>
       </c>
@@ -30454,8 +30652,11 @@
       <c r="ES67">
         <v>0.7380707174733993</v>
       </c>
+      <c r="ET67">
+        <v>0.7380707174733993</v>
+      </c>
     </row>
-    <row r="68" spans="1:149">
+    <row r="68" spans="1:150">
       <c r="A68" s="1">
         <v>31777</v>
       </c>
@@ -30903,8 +31104,11 @@
       <c r="ES68">
         <v>0.9882433123189723</v>
       </c>
+      <c r="ET68">
+        <v>0.9882433123189723</v>
+      </c>
     </row>
-    <row r="69" spans="1:149">
+    <row r="69" spans="1:150">
       <c r="A69" s="1">
         <v>31867</v>
       </c>
@@ -31352,8 +31556,11 @@
       <c r="ES69">
         <v>-2.51391935211743</v>
       </c>
+      <c r="ET69">
+        <v>-2.51391935211743</v>
+      </c>
     </row>
-    <row r="70" spans="1:149">
+    <row r="70" spans="1:150">
       <c r="A70" s="1">
         <v>31958</v>
       </c>
@@ -31801,8 +32008,11 @@
       <c r="ES70">
         <v>2.249913464866728</v>
       </c>
+      <c r="ET70">
+        <v>2.249913464866728</v>
+      </c>
     </row>
-    <row r="71" spans="1:149">
+    <row r="71" spans="1:150">
       <c r="A71" s="1">
         <v>32050</v>
       </c>
@@ -32250,8 +32460,11 @@
       <c r="ES71">
         <v>0.710900473933649</v>
       </c>
+      <c r="ET71">
+        <v>0.710900473933649</v>
+      </c>
     </row>
-    <row r="72" spans="1:149">
+    <row r="72" spans="1:150">
       <c r="A72" s="1">
         <v>32142</v>
       </c>
@@ -32699,8 +32912,11 @@
       <c r="ES72">
         <v>1.579831932773116</v>
       </c>
+      <c r="ET72">
+        <v>1.579831932773116</v>
+      </c>
     </row>
-    <row r="73" spans="1:149">
+    <row r="73" spans="1:150">
       <c r="A73" s="1">
         <v>32233</v>
       </c>
@@ -33148,8 +33364,11 @@
       <c r="ES73">
         <v>-0.8934480476505656</v>
       </c>
+      <c r="ET73">
+        <v>-0.8934480476505656</v>
+      </c>
     </row>
-    <row r="74" spans="1:149">
+    <row r="74" spans="1:150">
       <c r="A74" s="1">
         <v>32324</v>
       </c>
@@ -33597,8 +33816,11 @@
       <c r="ES74">
         <v>1.819699499165286</v>
       </c>
+      <c r="ET74">
+        <v>1.819699499165286</v>
+      </c>
     </row>
-    <row r="75" spans="1:149">
+    <row r="75" spans="1:150">
       <c r="A75" s="1">
         <v>32416</v>
       </c>
@@ -34046,8 +34268,11 @@
       <c r="ES75">
         <v>1.098540744384312</v>
       </c>
+      <c r="ET75">
+        <v>1.098540744384312</v>
+      </c>
     </row>
-    <row r="76" spans="1:149">
+    <row r="76" spans="1:150">
       <c r="A76" s="1">
         <v>32508</v>
       </c>
@@ -34495,8 +34720,11 @@
       <c r="ES76">
         <v>1.200129743756086</v>
       </c>
+      <c r="ET76">
+        <v>1.200129743756086</v>
+      </c>
     </row>
-    <row r="77" spans="1:149">
+    <row r="77" spans="1:150">
       <c r="A77" s="1">
         <v>32598</v>
       </c>
@@ -34944,8 +35172,11 @@
       <c r="ES77">
         <v>1.025641025641024</v>
       </c>
+      <c r="ET77">
+        <v>1.025641025641024</v>
+      </c>
     </row>
-    <row r="78" spans="1:149">
+    <row r="78" spans="1:150">
       <c r="A78" s="1">
         <v>32689</v>
       </c>
@@ -35393,8 +35624,11 @@
       <c r="ES78">
         <v>0.4124365482233533</v>
       </c>
+      <c r="ET78">
+        <v>0.4124365482233533</v>
+      </c>
     </row>
-    <row r="79" spans="1:149">
+    <row r="79" spans="1:150">
       <c r="A79" s="1">
         <v>32781</v>
       </c>
@@ -35842,8 +36076,11 @@
       <c r="ES79">
         <v>0.9004739336492815</v>
       </c>
+      <c r="ET79">
+        <v>0.9004739336492815</v>
+      </c>
     </row>
-    <row r="80" spans="1:149">
+    <row r="80" spans="1:150">
       <c r="A80" s="1">
         <v>32873</v>
       </c>
@@ -36291,8 +36528,11 @@
       <c r="ES80">
         <v>1.174260216063888</v>
       </c>
+      <c r="ET80">
+        <v>1.174260216063888</v>
+      </c>
     </row>
-    <row r="81" spans="1:149">
+    <row r="81" spans="1:150">
       <c r="A81" s="1">
         <v>32963</v>
       </c>
@@ -36740,8 +36980,11 @@
       <c r="ES81">
         <v>2.073661405137726</v>
       </c>
+      <c r="ET81">
+        <v>2.073661405137726</v>
+      </c>
     </row>
-    <row r="82" spans="1:149">
+    <row r="82" spans="1:150">
       <c r="A82" s="1">
         <v>33054</v>
       </c>
@@ -37189,8 +37432,11 @@
       <c r="ES82">
         <v>0.4851425106124861</v>
       </c>
+      <c r="ET82">
+        <v>0.4851425106124861</v>
+      </c>
     </row>
-    <row r="83" spans="1:149">
+    <row r="83" spans="1:150">
       <c r="A83" s="1">
         <v>33146</v>
       </c>
@@ -37638,8 +37884,11 @@
       <c r="ES83">
         <v>2.112251056125549</v>
       </c>
+      <c r="ET83">
+        <v>2.112251056125549</v>
+      </c>
     </row>
-    <row r="84" spans="1:149">
+    <row r="84" spans="1:150">
       <c r="A84" s="1">
         <v>33238</v>
       </c>
@@ -38087,8 +38336,11 @@
       <c r="ES84">
         <v>1.773049645390058</v>
       </c>
+      <c r="ET84">
+        <v>1.773049645390058</v>
+      </c>
     </row>
-    <row r="85" spans="1:149">
+    <row r="85" spans="1:150">
       <c r="A85" s="1">
         <v>33328</v>
       </c>
@@ -38536,8 +38788,11 @@
       <c r="ES85">
         <v>2.758420441347268</v>
       </c>
+      <c r="ET85">
+        <v>2.758420441347268</v>
+      </c>
     </row>
-    <row r="86" spans="1:149">
+    <row r="86" spans="1:150">
       <c r="A86" s="1">
         <v>33419</v>
       </c>
@@ -38982,8 +39237,11 @@
       <c r="ES86">
         <v>-0.4801581697500401</v>
       </c>
+      <c r="ET86">
+        <v>-0.4801581697500401</v>
+      </c>
     </row>
-    <row r="87" spans="1:149">
+    <row r="87" spans="1:150">
       <c r="A87" s="1">
         <v>33511</v>
       </c>
@@ -39425,8 +39683,11 @@
       <c r="ES87">
         <v>-0.156094792110117</v>
       </c>
+      <c r="ET87">
+        <v>-0.156094792110117</v>
+      </c>
     </row>
-    <row r="88" spans="1:149">
+    <row r="88" spans="1:150">
       <c r="A88" s="1">
         <v>33603</v>
       </c>
@@ -39865,8 +40126,11 @@
       <c r="ES88">
         <v>1.43547470153497</v>
       </c>
+      <c r="ET88">
+        <v>1.43547470153497</v>
+      </c>
     </row>
-    <row r="89" spans="1:149">
+    <row r="89" spans="1:150">
       <c r="A89" s="1">
         <v>33694</v>
       </c>
@@ -40302,8 +40566,11 @@
       <c r="ES89">
         <v>1.373125963289883</v>
       </c>
+      <c r="ET89">
+        <v>1.373125963289883</v>
+      </c>
     </row>
-    <row r="90" spans="1:149">
+    <row r="90" spans="1:150">
       <c r="A90" s="1">
         <v>33785</v>
       </c>
@@ -40736,8 +41003,11 @@
       <c r="ES90">
         <v>-0.6219765031098669</v>
       </c>
+      <c r="ET90">
+        <v>-0.6219765031098669</v>
+      </c>
     </row>
-    <row r="91" spans="1:149">
+    <row r="91" spans="1:150">
       <c r="A91" s="1">
         <v>33877</v>
       </c>
@@ -41167,8 +41437,11 @@
       <c r="ES91">
         <v>-0.2364394993045921</v>
       </c>
+      <c r="ET91">
+        <v>-0.2364394993045921</v>
+      </c>
     </row>
-    <row r="92" spans="1:149">
+    <row r="92" spans="1:150">
       <c r="A92" s="1">
         <v>33969</v>
       </c>
@@ -41595,8 +41868,11 @@
       <c r="ES92">
         <v>-0.2788233653980243</v>
       </c>
+      <c r="ET92">
+        <v>-0.2788233653980243</v>
+      </c>
     </row>
-    <row r="93" spans="1:149">
+    <row r="93" spans="1:150">
       <c r="A93" s="1">
         <v>34059</v>
       </c>
@@ -42020,8 +42296,11 @@
       <c r="ES93">
         <v>-0.7968684468055465</v>
       </c>
+      <c r="ET93">
+        <v>-0.7968684468055465</v>
+      </c>
     </row>
-    <row r="94" spans="1:149">
+    <row r="94" spans="1:150">
       <c r="A94" s="1">
         <v>34150</v>
       </c>
@@ -42442,8 +42721,11 @@
       <c r="ES94">
         <v>0.01409244644871071</v>
       </c>
+      <c r="ET94">
+        <v>0.01409244644871071</v>
+      </c>
     </row>
-    <row r="95" spans="1:149">
+    <row r="95" spans="1:150">
       <c r="A95" s="1">
         <v>34242</v>
       </c>
@@ -42861,8 +43143,11 @@
       <c r="ES95">
         <v>0.5917993518388075</v>
       </c>
+      <c r="ET95">
+        <v>0.5917993518388075</v>
+      </c>
     </row>
-    <row r="96" spans="1:149">
+    <row r="96" spans="1:150">
       <c r="A96" s="1">
         <v>34334</v>
       </c>
@@ -43277,8 +43562,11 @@
       <c r="ES96">
         <v>-0.08404538450763731</v>
       </c>
+      <c r="ET96">
+        <v>-0.08404538450763731</v>
+      </c>
     </row>
-    <row r="97" spans="1:149">
+    <row r="97" spans="1:150">
       <c r="A97" s="1">
         <v>34424</v>
       </c>
@@ -43690,8 +43978,11 @@
       <c r="ES97">
         <v>1.415954016542836</v>
       </c>
+      <c r="ET97">
+        <v>1.415954016542836</v>
+      </c>
     </row>
-    <row r="98" spans="1:149">
+    <row r="98" spans="1:150">
       <c r="A98" s="1">
         <v>34515</v>
       </c>
@@ -44100,8 +44391,11 @@
       <c r="ES98">
         <v>0.5529444290848651</v>
       </c>
+      <c r="ET98">
+        <v>0.5529444290848651</v>
+      </c>
     </row>
-    <row r="99" spans="1:149">
+    <row r="99" spans="1:150">
       <c r="A99" s="1">
         <v>34607</v>
       </c>
@@ -44507,8 +44801,11 @@
       <c r="ES99">
         <v>0.5911465493538725</v>
       </c>
+      <c r="ET99">
+        <v>0.5911465493538725</v>
+      </c>
     </row>
-    <row r="100" spans="1:149">
+    <row r="100" spans="1:150">
       <c r="A100" s="1">
         <v>34699</v>
       </c>
@@ -44911,8 +45208,11 @@
       <c r="ES100">
         <v>1.107011070110704</v>
       </c>
+      <c r="ET100">
+        <v>1.107011070110704</v>
+      </c>
     </row>
-    <row r="101" spans="1:149">
+    <row r="101" spans="1:150">
       <c r="A101" s="1">
         <v>34789</v>
       </c>
@@ -45312,8 +45612,11 @@
       <c r="ES101">
         <v>-0.3919978372533202</v>
       </c>
+      <c r="ET101">
+        <v>-0.3919978372533202</v>
+      </c>
     </row>
-    <row r="102" spans="1:149">
+    <row r="102" spans="1:150">
       <c r="A102" s="1">
         <v>34880</v>
       </c>
@@ -45710,8 +46013,11 @@
       <c r="ES102">
         <v>0.8006513773917809</v>
       </c>
+      <c r="ET102">
+        <v>0.8006513773917809</v>
+      </c>
     </row>
-    <row r="103" spans="1:149">
+    <row r="103" spans="1:150">
       <c r="A103" s="1">
         <v>34972</v>
       </c>
@@ -46105,8 +46411,11 @@
       <c r="ES103">
         <v>0.2019386106623663</v>
       </c>
+      <c r="ET103">
+        <v>0.2019386106623663</v>
+      </c>
     </row>
-    <row r="104" spans="1:149">
+    <row r="104" spans="1:150">
       <c r="A104" s="1">
         <v>35064</v>
       </c>
@@ -46497,8 +46806,11 @@
       <c r="ES104">
         <v>0.04030632809349311</v>
       </c>
+      <c r="ET104">
+        <v>0.04030632809349311</v>
+      </c>
     </row>
-    <row r="105" spans="1:149">
+    <row r="105" spans="1:150">
       <c r="A105" s="1">
         <v>35155</v>
       </c>
@@ -46886,8 +47198,11 @@
       <c r="ES105">
         <v>-0.7117915659414276</v>
       </c>
+      <c r="ET105">
+        <v>-0.7117915659414276</v>
+      </c>
     </row>
-    <row r="106" spans="1:149">
+    <row r="106" spans="1:150">
       <c r="A106" s="1">
         <v>35246</v>
       </c>
@@ -47272,8 +47587,11 @@
       <c r="ES106">
         <v>1.366157175706737</v>
       </c>
+      <c r="ET106">
+        <v>1.366157175706737</v>
+      </c>
     </row>
-    <row r="107" spans="1:149">
+    <row r="107" spans="1:150">
       <c r="A107" s="1">
         <v>35338</v>
       </c>
@@ -47655,8 +47973,11 @@
       <c r="ES107">
         <v>0.3869762476648069</v>
       </c>
+      <c r="ET107">
+        <v>0.3869762476648069</v>
+      </c>
     </row>
-    <row r="108" spans="1:149">
+    <row r="108" spans="1:150">
       <c r="A108" s="1">
         <v>35430</v>
       </c>
@@ -48035,8 +48356,11 @@
       <c r="ES108">
         <v>0.9171872923035993</v>
       </c>
+      <c r="ET108">
+        <v>0.9171872923035993</v>
+      </c>
     </row>
-    <row r="109" spans="1:149">
+    <row r="109" spans="1:150">
       <c r="A109" s="1">
         <v>35520</v>
       </c>
@@ -48412,8 +48736,11 @@
       <c r="ES109">
         <v>-0.513698630136987</v>
       </c>
+      <c r="ET109">
+        <v>-0.513698630136987</v>
+      </c>
     </row>
-    <row r="110" spans="1:149">
+    <row r="110" spans="1:150">
       <c r="A110" s="1">
         <v>35611</v>
       </c>
@@ -48786,8 +49113,11 @@
       <c r="ES110">
         <v>1.11214087117702</v>
       </c>
+      <c r="ET110">
+        <v>1.11214087117702</v>
+      </c>
     </row>
-    <row r="111" spans="1:149">
+    <row r="111" spans="1:150">
       <c r="A111" s="1">
         <v>35703</v>
       </c>
@@ -49157,8 +49487,11 @@
       <c r="ES111">
         <v>0.3928244074898483</v>
       </c>
+      <c r="ET111">
+        <v>0.3928244074898483</v>
+      </c>
     </row>
-    <row r="112" spans="1:149">
+    <row r="112" spans="1:150">
       <c r="A112" s="1">
         <v>35795</v>
       </c>
@@ -49525,8 +49858,11 @@
       <c r="ES112">
         <v>0.7434459371331592</v>
       </c>
+      <c r="ET112">
+        <v>0.7434459371331592</v>
+      </c>
     </row>
-    <row r="113" spans="1:149">
+    <row r="113" spans="1:150">
       <c r="A113" s="1">
         <v>35885</v>
       </c>
@@ -49890,8 +50226,11 @@
       <c r="ES113">
         <v>0.95805282237184</v>
       </c>
+      <c r="ET113">
+        <v>0.95805282237184</v>
+      </c>
     </row>
-    <row r="114" spans="1:149">
+    <row r="114" spans="1:150">
       <c r="A114" s="1">
         <v>35976</v>
       </c>
@@ -50252,8 +50591,11 @@
       <c r="ES114">
         <v>-0.4616568350859187</v>
       </c>
+      <c r="ET114">
+        <v>-0.4616568350859187</v>
+      </c>
     </row>
-    <row r="115" spans="1:149">
+    <row r="115" spans="1:150">
       <c r="A115" s="1">
         <v>36068</v>
       </c>
@@ -50611,8 +50953,11 @@
       <c r="ES115">
         <v>0.4895645452202981</v>
       </c>
+      <c r="ET115">
+        <v>0.4895645452202981</v>
+      </c>
     </row>
-    <row r="116" spans="1:149">
+    <row r="116" spans="1:150">
       <c r="A116" s="1">
         <v>36160</v>
       </c>
@@ -50967,8 +51312,11 @@
       <c r="ES116">
         <v>-0.02564102564102054</v>
       </c>
+      <c r="ET116">
+        <v>-0.02564102564102054</v>
+      </c>
     </row>
-    <row r="117" spans="1:149">
+    <row r="117" spans="1:150">
       <c r="A117" s="1">
         <v>36250</v>
       </c>
@@ -51320,8 +51668,11 @@
       <c r="ES117">
         <v>1.154142087714788</v>
       </c>
+      <c r="ET117">
+        <v>1.154142087714788</v>
+      </c>
     </row>
-    <row r="118" spans="1:149">
+    <row r="118" spans="1:150">
       <c r="A118" s="1">
         <v>36341</v>
       </c>
@@ -51670,8 +52021,11 @@
       <c r="ES118">
         <v>-0.1267748478701753</v>
       </c>
+      <c r="ET118">
+        <v>-0.1267748478701753</v>
+      </c>
     </row>
-    <row r="119" spans="1:149">
+    <row r="119" spans="1:150">
       <c r="A119" s="1">
         <v>36433</v>
       </c>
@@ -52017,8 +52371,11 @@
       <c r="ES119">
         <v>1.370906321401369</v>
       </c>
+      <c r="ET119">
+        <v>1.370906321401369</v>
+      </c>
     </row>
-    <row r="120" spans="1:149">
+    <row r="120" spans="1:150">
       <c r="A120" s="1">
         <v>36525</v>
       </c>
@@ -52361,8 +52718,11 @@
       <c r="ES120">
         <v>0.4758327072376602</v>
       </c>
+      <c r="ET120">
+        <v>0.4758327072376602</v>
+      </c>
     </row>
-    <row r="121" spans="1:149">
+    <row r="121" spans="1:150">
       <c r="A121" s="1">
         <v>36616</v>
       </c>
@@ -52702,8 +53062,11 @@
       <c r="ES121">
         <v>1.545363908275186</v>
       </c>
+      <c r="ET121">
+        <v>1.545363908275186</v>
+      </c>
     </row>
-    <row r="122" spans="1:149">
+    <row r="122" spans="1:150">
       <c r="A122" s="1">
         <v>36707</v>
       </c>
@@ -53040,8 +53403,11 @@
       <c r="ES122">
         <v>0.7977417771232099</v>
       </c>
+      <c r="ET122">
+        <v>0.7977417771232099</v>
+      </c>
     </row>
-    <row r="123" spans="1:149">
+    <row r="123" spans="1:150">
       <c r="A123" s="1">
         <v>36799</v>
       </c>
@@ -53375,8 +53741,11 @@
       <c r="ES123">
         <v>0.07305491294289818</v>
       </c>
+      <c r="ET123">
+        <v>0.07305491294289818</v>
+      </c>
     </row>
-    <row r="124" spans="1:149">
+    <row r="124" spans="1:150">
       <c r="A124" s="1">
         <v>36891</v>
       </c>
@@ -53707,8 +54076,11 @@
       <c r="ES124">
         <v>-0.4258425599221248</v>
       </c>
+      <c r="ET124">
+        <v>-0.4258425599221248</v>
+      </c>
     </row>
-    <row r="125" spans="1:149">
+    <row r="125" spans="1:150">
       <c r="A125" s="1">
         <v>36981</v>
       </c>
@@ -54036,8 +54408,11 @@
       <c r="ES125">
         <v>2.126099706744862</v>
       </c>
+      <c r="ET125">
+        <v>2.126099706744862</v>
+      </c>
     </row>
-    <row r="126" spans="1:149">
+    <row r="126" spans="1:150">
       <c r="A126" s="1">
         <v>37072</v>
       </c>
@@ -54362,8 +54737,11 @@
       <c r="ES126">
         <v>-0.2512562814070277</v>
       </c>
+      <c r="ET126">
+        <v>-0.2512562814070277</v>
+      </c>
     </row>
-    <row r="127" spans="1:149">
+    <row r="127" spans="1:150">
       <c r="A127" s="1">
         <v>37164</v>
       </c>
@@ -54685,8 +55063,11 @@
       <c r="ES127">
         <v>0</v>
       </c>
+      <c r="ET127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:149">
+    <row r="128" spans="1:150">
       <c r="A128" s="1">
         <v>37256</v>
       </c>
@@ -55005,8 +55386,11 @@
       <c r="ES128">
         <v>-0.3118627803766404</v>
       </c>
+      <c r="ET128">
+        <v>-0.3118627803766404</v>
+      </c>
     </row>
-    <row r="129" spans="1:149">
+    <row r="129" spans="1:150">
       <c r="A129" s="1">
         <v>37346</v>
       </c>
@@ -55322,8 +55706,11 @@
       <c r="ES129">
         <v>-0.4692576103958616</v>
       </c>
+      <c r="ET129">
+        <v>-0.4692576103958616</v>
+      </c>
     </row>
-    <row r="130" spans="1:149">
+    <row r="130" spans="1:150">
       <c r="A130" s="1">
         <v>37437</v>
       </c>
@@ -55636,8 +56023,11 @@
       <c r="ES130">
         <v>0.3868471953578426</v>
       </c>
+      <c r="ET130">
+        <v>0.3868471953578426</v>
+      </c>
     </row>
-    <row r="131" spans="1:149">
+    <row r="131" spans="1:150">
       <c r="A131" s="1">
         <v>37529</v>
       </c>
@@ -55947,8 +56337,11 @@
       <c r="ES131">
         <v>0.68641618497109</v>
       </c>
+      <c r="ET131">
+        <v>0.68641618497109</v>
+      </c>
     </row>
-    <row r="132" spans="1:149">
+    <row r="132" spans="1:150">
       <c r="A132" s="1">
         <v>37621</v>
       </c>
@@ -56255,8 +56648,11 @@
       <c r="ES132">
         <v>-0.2750867121157804</v>
       </c>
+      <c r="ET132">
+        <v>-0.2750867121157804</v>
+      </c>
     </row>
-    <row r="133" spans="1:149">
+    <row r="133" spans="1:150">
       <c r="A133" s="1">
         <v>37711</v>
       </c>
@@ -56560,8 +56956,11 @@
       <c r="ES133">
         <v>-1.355241065003592</v>
       </c>
+      <c r="ET133">
+        <v>-1.355241065003592</v>
+      </c>
     </row>
-    <row r="134" spans="1:149">
+    <row r="134" spans="1:150">
       <c r="A134" s="1">
         <v>37802</v>
       </c>
@@ -56862,8 +57261,11 @@
       <c r="ES134">
         <v>0.1458966565349599</v>
       </c>
+      <c r="ET134">
+        <v>0.1458966565349599</v>
+      </c>
     </row>
-    <row r="135" spans="1:149">
+    <row r="135" spans="1:150">
       <c r="A135" s="1">
         <v>37894</v>
       </c>
@@ -57161,8 +57563,11 @@
       <c r="ES135">
         <v>0.9105256768240864</v>
       </c>
+      <c r="ET135">
+        <v>0.9105256768240864</v>
+      </c>
     </row>
-    <row r="136" spans="1:149">
+    <row r="136" spans="1:150">
       <c r="A136" s="1">
         <v>37986</v>
       </c>
@@ -57457,8 +57862,11 @@
       <c r="ES136">
         <v>0.1203079884504263</v>
       </c>
+      <c r="ET136">
+        <v>0.1203079884504263</v>
+      </c>
     </row>
-    <row r="137" spans="1:149">
+    <row r="137" spans="1:150">
       <c r="A137" s="1">
         <v>38077</v>
       </c>
@@ -57750,8 +58158,11 @@
       <c r="ES137">
         <v>-0.1562124489305401</v>
       </c>
+      <c r="ET137">
+        <v>-0.1562124489305401</v>
+      </c>
     </row>
-    <row r="138" spans="1:149">
+    <row r="138" spans="1:150">
       <c r="A138" s="1">
         <v>38168</v>
       </c>
@@ -58040,8 +58451,11 @@
       <c r="ES138">
         <v>0.589721988205554</v>
       </c>
+      <c r="ET138">
+        <v>0.589721988205554</v>
+      </c>
     </row>
-    <row r="139" spans="1:149">
+    <row r="139" spans="1:150">
       <c r="A139" s="1">
         <v>38260</v>
       </c>
@@ -58327,8 +58741,11 @@
       <c r="ES139">
         <v>-0.323043790380469</v>
       </c>
+      <c r="ET139">
+        <v>-0.323043790380469</v>
+      </c>
     </row>
-    <row r="140" spans="1:149">
+    <row r="140" spans="1:150">
       <c r="A140" s="1">
         <v>38352</v>
       </c>
@@ -58611,8 +59028,11 @@
       <c r="ES140">
         <v>-0.03601008282319185</v>
       </c>
+      <c r="ET140">
+        <v>-0.03601008282319185</v>
+      </c>
     </row>
-    <row r="141" spans="1:149">
+    <row r="141" spans="1:150">
       <c r="A141" s="1">
         <v>38442</v>
       </c>
@@ -58892,8 +59312,11 @@
       <c r="ES141">
         <v>0.1560999039385152</v>
       </c>
+      <c r="ET141">
+        <v>0.1560999039385152</v>
+      </c>
     </row>
-    <row r="142" spans="1:149">
+    <row r="142" spans="1:150">
       <c r="A142" s="1">
         <v>38533</v>
       </c>
@@ -59170,8 +59593,11 @@
       <c r="ES142">
         <v>0.5994485073732168</v>
       </c>
+      <c r="ET142">
+        <v>0.5994485073732168</v>
+      </c>
     </row>
-    <row r="143" spans="1:149">
+    <row r="143" spans="1:150">
       <c r="A143" s="1">
         <v>38625</v>
       </c>
@@ -59445,8 +59871,11 @@
       <c r="ES143">
         <v>0.7865570253843364</v>
       </c>
+      <c r="ET143">
+        <v>0.7865570253843364</v>
+      </c>
     </row>
-    <row r="144" spans="1:149">
+    <row r="144" spans="1:150">
       <c r="A144" s="1">
         <v>38717</v>
       </c>
@@ -59717,8 +60146,11 @@
       <c r="ES144">
         <v>0.3783847700130157</v>
       </c>
+      <c r="ET144">
+        <v>0.3783847700130157</v>
+      </c>
     </row>
-    <row r="145" spans="1:149">
+    <row r="145" spans="1:150">
       <c r="A145" s="1">
         <v>38807</v>
       </c>
@@ -59986,8 +60418,11 @@
       <c r="ES145">
         <v>1.119095299799744</v>
       </c>
+      <c r="ET145">
+        <v>1.119095299799744</v>
+      </c>
     </row>
-    <row r="146" spans="1:149">
+    <row r="146" spans="1:150">
       <c r="A146" s="1">
         <v>38898</v>
       </c>
@@ -60252,8 +60687,11 @@
       <c r="ES146">
         <v>1.712488350419384</v>
       </c>
+      <c r="ET146">
+        <v>1.712488350419384</v>
+      </c>
     </row>
-    <row r="147" spans="1:149">
+    <row r="147" spans="1:150">
       <c r="A147" s="1">
         <v>38990</v>
       </c>
@@ -60515,8 +60953,11 @@
       <c r="ES147">
         <v>0.7559271561104073</v>
       </c>
+      <c r="ET147">
+        <v>0.7559271561104073</v>
+      </c>
     </row>
-    <row r="148" spans="1:149">
+    <row r="148" spans="1:150">
       <c r="A148" s="1">
         <v>39082</v>
       </c>
@@ -60775,8 +61216,11 @@
       <c r="ES148">
         <v>1.466409003069235</v>
       </c>
+      <c r="ET148">
+        <v>1.466409003069235</v>
+      </c>
     </row>
-    <row r="149" spans="1:149">
+    <row r="149" spans="1:150">
       <c r="A149" s="1">
         <v>39172</v>
       </c>
@@ -61032,8 +61476,11 @@
       <c r="ES149">
         <v>0.1344387183508742</v>
       </c>
+      <c r="ET149">
+        <v>0.1344387183508742</v>
+      </c>
     </row>
-    <row r="150" spans="1:149">
+    <row r="150" spans="1:150">
       <c r="A150" s="1">
         <v>39263</v>
       </c>
@@ -61286,8 +61733,11 @@
       <c r="ES150">
         <v>0.6601029313045462</v>
       </c>
+      <c r="ET150">
+        <v>0.6601029313045462</v>
+      </c>
     </row>
-    <row r="151" spans="1:149">
+    <row r="151" spans="1:150">
       <c r="A151" s="1">
         <v>39355</v>
       </c>
@@ -61537,8 +61987,11 @@
       <c r="ES151">
         <v>0.5112815382905501</v>
       </c>
+      <c r="ET151">
+        <v>0.5112815382905501</v>
+      </c>
     </row>
-    <row r="152" spans="1:149">
+    <row r="152" spans="1:150">
       <c r="A152" s="1">
         <v>39447</v>
       </c>
@@ -61785,8 +62238,11 @@
       <c r="ES152">
         <v>0.7409045670684369</v>
       </c>
+      <c r="ET152">
+        <v>0.7409045670684369</v>
+      </c>
     </row>
-    <row r="153" spans="1:149">
+    <row r="153" spans="1:150">
       <c r="A153" s="1">
         <v>39538</v>
       </c>
@@ -62030,8 +62486,11 @@
       <c r="ES153">
         <v>0.5817782656421527</v>
       </c>
+      <c r="ET153">
+        <v>0.5817782656421527</v>
+      </c>
     </row>
-    <row r="154" spans="1:149">
+    <row r="154" spans="1:150">
       <c r="A154" s="1">
         <v>39629</v>
       </c>
@@ -62272,8 +62731,11 @@
       <c r="ES154">
         <v>-0.3601440576230474</v>
       </c>
+      <c r="ET154">
+        <v>-0.3601440576230474</v>
+      </c>
     </row>
-    <row r="155" spans="1:149">
+    <row r="155" spans="1:150">
       <c r="A155" s="1">
         <v>39721</v>
       </c>
@@ -62511,8 +62973,11 @@
       <c r="ES155">
         <v>-0.547645125958379</v>
       </c>
+      <c r="ET155">
+        <v>-0.547645125958379</v>
+      </c>
     </row>
-    <row r="156" spans="1:149">
+    <row r="156" spans="1:150">
       <c r="A156" s="1">
         <v>39813</v>
       </c>
@@ -62747,8 +63212,11 @@
       <c r="ES156">
         <v>-1.552863436123344</v>
       </c>
+      <c r="ET156">
+        <v>-1.552863436123344</v>
+      </c>
     </row>
-    <row r="157" spans="1:149">
+    <row r="157" spans="1:150">
       <c r="A157" s="1">
         <v>39903</v>
       </c>
@@ -62980,8 +63448,11 @@
       <c r="ES157">
         <v>-4.687325204161537</v>
       </c>
+      <c r="ET157">
+        <v>-4.687325204161537</v>
+      </c>
     </row>
-    <row r="158" spans="1:149">
+    <row r="158" spans="1:150">
       <c r="A158" s="1">
         <v>39994</v>
       </c>
@@ -63210,8 +63681,11 @@
       <c r="ES158">
         <v>0.2464788732394293</v>
       </c>
+      <c r="ET158">
+        <v>0.2464788732394293</v>
+      </c>
     </row>
-    <row r="159" spans="1:149">
+    <row r="159" spans="1:150">
       <c r="A159" s="1">
         <v>40086</v>
       </c>
@@ -63437,8 +63911,11 @@
       <c r="ES159">
         <v>0.6205362369745945</v>
       </c>
+      <c r="ET159">
+        <v>0.6205362369745945</v>
+      </c>
     </row>
-    <row r="160" spans="1:149">
+    <row r="160" spans="1:150">
       <c r="A160" s="1">
         <v>40178</v>
       </c>
@@ -63661,8 +64138,11 @@
       <c r="ES160">
         <v>0.7679776588317392</v>
       </c>
+      <c r="ET160">
+        <v>0.7679776588317392</v>
+      </c>
     </row>
-    <row r="161" spans="1:149">
+    <row r="161" spans="1:150">
       <c r="A161" s="1">
         <v>40268</v>
       </c>
@@ -63882,8 +64362,11 @@
       <c r="ES161">
         <v>0.7274826789838449</v>
       </c>
+      <c r="ET161">
+        <v>0.7274826789838449</v>
+      </c>
     </row>
-    <row r="162" spans="1:149">
+    <row r="162" spans="1:150">
       <c r="A162" s="1">
         <v>40359</v>
       </c>
@@ -64100,8 +64583,11 @@
       <c r="ES162">
         <v>2.166685773243151</v>
       </c>
+      <c r="ET162">
+        <v>2.166685773243151</v>
+      </c>
     </row>
-    <row r="163" spans="1:149">
+    <row r="163" spans="1:150">
       <c r="A163" s="1">
         <v>40451</v>
       </c>
@@ -64315,8 +64801,11 @@
       <c r="ES163">
         <v>0.9649910233393171</v>
       </c>
+      <c r="ET163">
+        <v>0.9649910233393171</v>
+      </c>
     </row>
-    <row r="164" spans="1:149">
+    <row r="164" spans="1:150">
       <c r="A164" s="1">
         <v>40543</v>
       </c>
@@ -64527,8 +65016,11 @@
       <c r="ES164">
         <v>0.6557012669481986</v>
       </c>
+      <c r="ET164">
+        <v>0.6557012669481986</v>
+      </c>
     </row>
-    <row r="165" spans="1:149">
+    <row r="165" spans="1:150">
       <c r="A165" s="1">
         <v>40633</v>
       </c>
@@ -64736,8 +65228,11 @@
       <c r="ES165">
         <v>1.810754112840897</v>
       </c>
+      <c r="ET165">
+        <v>1.810754112840897</v>
+      </c>
     </row>
-    <row r="166" spans="1:149">
+    <row r="166" spans="1:150">
       <c r="A166" s="1">
         <v>40724</v>
       </c>
@@ -64942,8 +65437,11 @@
       <c r="ES166">
         <v>0.2711202689513068</v>
       </c>
+      <c r="ET166">
+        <v>0.2711202689513068</v>
+      </c>
     </row>
-    <row r="167" spans="1:149">
+    <row r="167" spans="1:150">
       <c r="A167" s="1">
         <v>40816</v>
       </c>
@@ -65145,8 +65643,11 @@
       <c r="ES167">
         <v>0.5407743889249406</v>
       </c>
+      <c r="ET167">
+        <v>0.5407743889249406</v>
+      </c>
     </row>
-    <row r="168" spans="1:149">
+    <row r="168" spans="1:150">
       <c r="A168" s="1">
         <v>40908</v>
       </c>
@@ -65345,8 +65846,11 @@
       <c r="ES168">
         <v>-0.01075731497417266</v>
       </c>
+      <c r="ET168">
+        <v>-0.01075731497417266</v>
+      </c>
     </row>
-    <row r="169" spans="1:149">
+    <row r="169" spans="1:150">
       <c r="A169" s="1">
         <v>40999</v>
       </c>
@@ -65542,8 +66046,11 @@
       <c r="ES169">
         <v>0.2151694459386798</v>
       </c>
+      <c r="ET169">
+        <v>0.2151694459386798</v>
+      </c>
     </row>
-    <row r="170" spans="1:149">
+    <row r="170" spans="1:150">
       <c r="A170" s="1">
         <v>41090</v>
       </c>
@@ -65736,8 +66243,11 @@
       <c r="ES170">
         <v>0.1073537305421302</v>
       </c>
+      <c r="ET170">
+        <v>0.1073537305421302</v>
+      </c>
     </row>
-    <row r="171" spans="1:149">
+    <row r="171" spans="1:150">
       <c r="A171" s="1">
         <v>41182</v>
       </c>
@@ -65927,8 +66437,11 @@
       <c r="ES171">
         <v>0.2037533512064319</v>
       </c>
+      <c r="ET171">
+        <v>0.2037533512064319</v>
+      </c>
     </row>
-    <row r="172" spans="1:149">
+    <row r="172" spans="1:150">
       <c r="A172" s="1">
         <v>41274</v>
       </c>
@@ -66115,8 +66628,11 @@
       <c r="ES172">
         <v>-0.2996575342465766</v>
       </c>
+      <c r="ET172">
+        <v>-0.2996575342465766</v>
+      </c>
     </row>
-    <row r="173" spans="1:149">
+    <row r="173" spans="1:150">
       <c r="A173" s="1">
         <v>41364</v>
       </c>
@@ -66300,8 +66816,11 @@
       <c r="ES173">
         <v>-0.5581794761700257</v>
       </c>
+      <c r="ET173">
+        <v>-0.5581794761700257</v>
+      </c>
     </row>
-    <row r="174" spans="1:149">
+    <row r="174" spans="1:150">
       <c r="A174" s="1">
         <v>41455</v>
       </c>
@@ -66482,8 +67001,11 @@
       <c r="ES174">
         <v>1.165803108808288</v>
       </c>
+      <c r="ET174">
+        <v>1.165803108808288</v>
+      </c>
     </row>
-    <row r="175" spans="1:149">
+    <row r="175" spans="1:150">
       <c r="A175" s="1">
         <v>41547</v>
       </c>
@@ -66661,8 +67183,11 @@
       <c r="ES175">
         <v>0.5121638924455868</v>
       </c>
+      <c r="ET175">
+        <v>0.5121638924455868</v>
+      </c>
     </row>
-    <row r="176" spans="1:149">
+    <row r="176" spans="1:150">
       <c r="A176" s="1">
         <v>41639</v>
       </c>
@@ -66837,8 +67362,11 @@
       <c r="ES176">
         <v>0.1486199575371556</v>
       </c>
+      <c r="ET176">
+        <v>0.1486199575371556</v>
+      </c>
     </row>
-    <row r="177" spans="1:149">
+    <row r="177" spans="1:150">
       <c r="A177" s="1">
         <v>41729</v>
       </c>
@@ -67010,8 +67538,11 @@
       <c r="ES177">
         <v>1.049395802416785</v>
       </c>
+      <c r="ET177">
+        <v>1.049395802416785</v>
+      </c>
     </row>
-    <row r="178" spans="1:149">
+    <row r="178" spans="1:150">
       <c r="A178" s="1">
         <v>41820</v>
       </c>
@@ -67180,8 +67711,11 @@
       <c r="ES178">
         <v>-0.02097975453686774</v>
       </c>
+      <c r="ET178">
+        <v>-0.02097975453686774</v>
+      </c>
     </row>
-    <row r="179" spans="1:149">
+    <row r="179" spans="1:150">
       <c r="A179" s="1">
         <v>41912</v>
       </c>
@@ -67347,8 +67881,11 @@
       <c r="ES179">
         <v>0.5560801594795941</v>
       </c>
+      <c r="ET179">
+        <v>0.5560801594795941</v>
+      </c>
     </row>
-    <row r="180" spans="1:149">
+    <row r="180" spans="1:150">
       <c r="A180" s="1">
         <v>42004</v>
       </c>
@@ -67511,8 +68048,11 @@
       <c r="ES180">
         <v>0.7616861435726103</v>
       </c>
+      <c r="ET180">
+        <v>0.7616861435726103</v>
+      </c>
     </row>
-    <row r="181" spans="1:149">
+    <row r="181" spans="1:150">
       <c r="A181" s="1">
         <v>42094</v>
       </c>
@@ -67672,8 +68212,11 @@
       <c r="ES181">
         <v>-0.2174588381484869</v>
       </c>
+      <c r="ET181">
+        <v>-0.2174588381484869</v>
+      </c>
     </row>
-    <row r="182" spans="1:149">
+    <row r="182" spans="1:150">
       <c r="A182" s="1">
         <v>42185</v>
       </c>
@@ -67830,8 +68373,11 @@
       <c r="ES182">
         <v>0.5188875051888751</v>
       </c>
+      <c r="ET182">
+        <v>0.5188875051888751</v>
+      </c>
     </row>
-    <row r="183" spans="1:149">
+    <row r="183" spans="1:150">
       <c r="A183" s="1">
         <v>42277</v>
       </c>
@@ -67985,8 +68531,11 @@
       <c r="ES183">
         <v>0.5368573198430684</v>
       </c>
+      <c r="ET183">
+        <v>0.5368573198430684</v>
+      </c>
     </row>
-    <row r="184" spans="1:149">
+    <row r="184" spans="1:150">
       <c r="A184" s="1">
         <v>42369</v>
       </c>
@@ -68137,8 +68686,11 @@
       <c r="ES184">
         <v>0.5134524543027316</v>
       </c>
+      <c r="ET184">
+        <v>0.5134524543027316</v>
+      </c>
     </row>
-    <row r="185" spans="1:149">
+    <row r="185" spans="1:150">
       <c r="A185" s="1">
         <v>42460</v>
       </c>
@@ -68286,8 +68838,11 @@
       <c r="ES185">
         <v>0.8786268900694724</v>
       </c>
+      <c r="ET185">
+        <v>0.8786268900694724</v>
+      </c>
     </row>
-    <row r="186" spans="1:149">
+    <row r="186" spans="1:150">
       <c r="A186" s="1">
         <v>42551</v>
       </c>
@@ -68432,8 +68987,11 @@
       <c r="ES186">
         <v>0.2228073728985202</v>
       </c>
+      <c r="ET186">
+        <v>0.2228073728985202</v>
+      </c>
     </row>
-    <row r="187" spans="1:149">
+    <row r="187" spans="1:150">
       <c r="A187" s="1">
         <v>42643</v>
       </c>
@@ -68575,8 +69133,11 @@
       <c r="ES187">
         <v>0.3536782538399439</v>
       </c>
+      <c r="ET187">
+        <v>0.3536782538399439</v>
+      </c>
     </row>
-    <row r="188" spans="1:149">
+    <row r="188" spans="1:150">
       <c r="A188" s="1">
         <v>42735</v>
       </c>
@@ -68715,8 +69276,11 @@
       <c r="ES188">
         <v>0.4631960527640658</v>
       </c>
+      <c r="ET188">
+        <v>0.4631960527640658</v>
+      </c>
     </row>
-    <row r="189" spans="1:149">
+    <row r="189" spans="1:150">
       <c r="A189" s="1">
         <v>42825</v>
       </c>
@@ -68852,8 +69416,11 @@
       <c r="ES189">
         <v>1.292973839831619</v>
       </c>
+      <c r="ET189">
+        <v>1.292973839831619</v>
+      </c>
     </row>
-    <row r="190" spans="1:149">
+    <row r="190" spans="1:150">
       <c r="A190" s="1">
         <v>42916</v>
       </c>
@@ -68986,8 +69553,11 @@
       <c r="ES190">
         <v>0.7124480506629713</v>
       </c>
+      <c r="ET190">
+        <v>0.7124480506629713</v>
+      </c>
     </row>
-    <row r="191" spans="1:149">
+    <row r="191" spans="1:150">
       <c r="A191" s="1">
         <v>43008</v>
       </c>
@@ -69117,8 +69687,11 @@
       <c r="ES191">
         <v>0.7958341520927513</v>
       </c>
+      <c r="ET191">
+        <v>0.7958341520927513</v>
+      </c>
     </row>
-    <row r="192" spans="1:149">
+    <row r="192" spans="1:150">
       <c r="A192" s="1">
         <v>43100</v>
       </c>
@@ -69245,8 +69818,11 @@
       <c r="ES192">
         <v>1.01374402963251</v>
       </c>
+      <c r="ET192">
+        <v>1.01374402963251</v>
+      </c>
     </row>
-    <row r="193" spans="1:149">
+    <row r="193" spans="1:150">
       <c r="A193" s="1">
         <v>43190</v>
       </c>
@@ -69370,8 +69946,11 @@
       <c r="ES193">
         <v>-0.5500337740036604</v>
       </c>
+      <c r="ET193">
+        <v>-0.5500337740036604</v>
+      </c>
     </row>
-    <row r="194" spans="1:149">
+    <row r="194" spans="1:150">
       <c r="A194" s="1">
         <v>43281</v>
       </c>
@@ -69492,8 +70071,11 @@
       <c r="ES194">
         <v>0.7859499320784032</v>
       </c>
+      <c r="ET194">
+        <v>0.7859499320784032</v>
+      </c>
     </row>
-    <row r="195" spans="1:149">
+    <row r="195" spans="1:150">
       <c r="A195" s="1">
         <v>43373</v>
       </c>
@@ -69611,8 +70193,11 @@
       <c r="ES195">
         <v>-0.654664484451725</v>
       </c>
+      <c r="ET195">
+        <v>-0.654664484451725</v>
+      </c>
     </row>
-    <row r="196" spans="1:149">
+    <row r="196" spans="1:150">
       <c r="A196" s="1">
         <v>43465</v>
       </c>
@@ -69727,8 +70312,11 @@
       <c r="ES196">
         <v>0.4457796298090977</v>
       </c>
+      <c r="ET196">
+        <v>0.4457796298090977</v>
+      </c>
     </row>
-    <row r="197" spans="1:149">
+    <row r="197" spans="1:150">
       <c r="A197" s="1">
         <v>43555</v>
       </c>
@@ -69840,8 +70428,11 @@
       <c r="ES197">
         <v>0.6560540279787676</v>
       </c>
+      <c r="ET197">
+        <v>0.6560540279787676</v>
+      </c>
     </row>
-    <row r="198" spans="1:149">
+    <row r="198" spans="1:150">
       <c r="A198" s="1">
         <v>43646</v>
       </c>
@@ -69950,8 +70541,11 @@
       <c r="ES198">
         <v>0.05750982459503716</v>
       </c>
+      <c r="ET198">
+        <v>0.05750982459503716</v>
+      </c>
     </row>
-    <row r="199" spans="1:149">
+    <row r="199" spans="1:150">
       <c r="A199" s="1">
         <v>43738</v>
       </c>
@@ -70057,8 +70651,11 @@
       <c r="ES199">
         <v>0.3831784653702516</v>
       </c>
+      <c r="ET199">
+        <v>0.3831784653702516</v>
+      </c>
     </row>
-    <row r="200" spans="1:149">
+    <row r="200" spans="1:150">
       <c r="A200" s="1">
         <v>43830</v>
       </c>
@@ -70161,8 +70758,11 @@
       <c r="ES200">
         <v>-0.3340013360053521</v>
       </c>
+      <c r="ET200">
+        <v>-0.3340013360053521</v>
+      </c>
     </row>
-    <row r="201" spans="1:149">
+    <row r="201" spans="1:150">
       <c r="A201" s="1">
         <v>43921</v>
       </c>
@@ -70262,8 +70862,11 @@
       <c r="ES201">
         <v>-2.029873611643053</v>
       </c>
+      <c r="ET201">
+        <v>-2.029873611643053</v>
+      </c>
     </row>
-    <row r="202" spans="1:149">
+    <row r="202" spans="1:150">
       <c r="A202" s="1">
         <v>44012</v>
       </c>
@@ -70360,8 +70963,11 @@
       <c r="ES202">
         <v>-8.874120406567631</v>
       </c>
+      <c r="ET202">
+        <v>-8.874120406567631</v>
+      </c>
     </row>
-    <row r="203" spans="1:149">
+    <row r="203" spans="1:150">
       <c r="A203" s="1">
         <v>44104</v>
       </c>
@@ -70455,8 +71061,11 @@
       <c r="ES203">
         <v>8.67653367653368</v>
       </c>
+      <c r="ET203">
+        <v>8.67653367653368</v>
+      </c>
     </row>
-    <row r="204" spans="1:149">
+    <row r="204" spans="1:150">
       <c r="A204" s="1">
         <v>44196</v>
       </c>
@@ -70547,8 +71156,11 @@
       <c r="ES204">
         <v>0.9671370768775328</v>
       </c>
+      <c r="ET204">
+        <v>0.9671370768775328</v>
+      </c>
     </row>
-    <row r="205" spans="1:149">
+    <row r="205" spans="1:150">
       <c r="A205" s="1">
         <v>44286</v>
       </c>
@@ -70636,8 +71248,11 @@
       <c r="ES205">
         <v>-0.6157755840093788</v>
       </c>
+      <c r="ET205">
+        <v>-0.6157755840093788</v>
+      </c>
     </row>
-    <row r="206" spans="1:149">
+    <row r="206" spans="1:150">
       <c r="A206" s="1">
         <v>44377</v>
       </c>
@@ -70722,8 +71337,11 @@
       <c r="ES206">
         <v>2.350511408339877</v>
       </c>
+      <c r="ET206">
+        <v>2.350511408339877</v>
+      </c>
     </row>
-    <row r="207" spans="1:149">
+    <row r="207" spans="1:150">
       <c r="A207" s="1">
         <v>44469</v>
       </c>
@@ -70805,8 +71423,11 @@
       <c r="ES207">
         <v>0.08648025367541406</v>
       </c>
+      <c r="ET207">
+        <v>0.08648025367541406</v>
+      </c>
     </row>
-    <row r="208" spans="1:149">
+    <row r="208" spans="1:150">
       <c r="A208" s="1">
         <v>44561</v>
       </c>
@@ -70885,8 +71506,11 @@
       <c r="ES208">
         <v>0.5376344086021527</v>
       </c>
+      <c r="ET208">
+        <v>0.5376344086021527</v>
+      </c>
     </row>
-    <row r="209" spans="1:149">
+    <row r="209" spans="1:150">
       <c r="A209" s="1">
         <v>44651</v>
       </c>
@@ -70962,8 +71586,11 @@
       <c r="ES209">
         <v>0.6779984721161268</v>
       </c>
+      <c r="ET209">
+        <v>0.6779984721161268</v>
+      </c>
     </row>
-    <row r="210" spans="1:149">
+    <row r="210" spans="1:150">
       <c r="A210" s="1">
         <v>44742</v>
       </c>
@@ -71036,8 +71663,11 @@
       <c r="ES210">
         <v>0.1517594612539093</v>
       </c>
+      <c r="ET210">
+        <v>0.1517594612539093</v>
+      </c>
     </row>
-    <row r="211" spans="1:149">
+    <row r="211" spans="1:150">
       <c r="A211" s="1">
         <v>44834</v>
       </c>
@@ -71107,8 +71737,11 @@
       <c r="ES211">
         <v>0.2935884079931833</v>
       </c>
+      <c r="ET211">
+        <v>0.2935884079931833</v>
+      </c>
     </row>
-    <row r="212" spans="1:149">
+    <row r="212" spans="1:150">
       <c r="A212" s="1">
         <v>44926</v>
       </c>
@@ -71175,8 +71808,11 @@
       <c r="ES212">
         <v>-0.3493862134088806</v>
       </c>
+      <c r="ET212">
+        <v>-0.3493862134088806</v>
+      </c>
     </row>
-    <row r="213" spans="1:149">
+    <row r="213" spans="1:150">
       <c r="A213" s="1">
         <v>45016</v>
       </c>
@@ -71240,8 +71876,11 @@
       <c r="ES213">
         <v>-0.473798919738463</v>
       </c>
+      <c r="ET213">
+        <v>-0.473798919738463</v>
+      </c>
     </row>
-    <row r="214" spans="1:149">
+    <row r="214" spans="1:150">
       <c r="A214" s="1">
         <v>45107</v>
       </c>
@@ -71302,8 +71941,11 @@
       <c r="ES214">
         <v>-0.07616871370084576</v>
       </c>
+      <c r="ET214">
+        <v>-0.07616871370084576</v>
+      </c>
     </row>
-    <row r="215" spans="1:149">
+    <row r="215" spans="1:150">
       <c r="A215" s="1">
         <v>45199</v>
       </c>
@@ -71361,8 +72003,11 @@
       <c r="ES215">
         <v>0</v>
       </c>
+      <c r="ET215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:149">
+    <row r="216" spans="1:150">
       <c r="A216" s="1">
         <v>45291</v>
       </c>
@@ -71417,8 +72062,11 @@
       <c r="ES216">
         <v>-0.2763220581229216</v>
       </c>
+      <c r="ET216">
+        <v>-0.2763220581229216</v>
+      </c>
     </row>
-    <row r="217" spans="1:149">
+    <row r="217" spans="1:150">
       <c r="A217" s="1">
         <v>45382</v>
       </c>
@@ -71470,8 +72118,11 @@
       <c r="ES217">
         <v>-0.1051022358111976</v>
       </c>
+      <c r="ET217">
+        <v>-0.1051022358111976</v>
+      </c>
     </row>
-    <row r="218" spans="1:149">
+    <row r="218" spans="1:150">
       <c r="A218" s="1">
         <v>45473</v>
       </c>
@@ -71520,8 +72171,11 @@
       <c r="ES218">
         <v>-0.2582496413199388</v>
       </c>
+      <c r="ET218">
+        <v>-0.2582496413199388</v>
+      </c>
     </row>
-    <row r="219" spans="1:149">
+    <row r="219" spans="1:150">
       <c r="A219" s="1">
         <v>45565</v>
       </c>
@@ -71567,8 +72221,11 @@
       <c r="ES219">
         <v>0.01917913310317992</v>
       </c>
+      <c r="ET219">
+        <v>0.01917913310317992</v>
+      </c>
     </row>
-    <row r="220" spans="1:149">
+    <row r="220" spans="1:150">
       <c r="A220" s="1">
         <v>45657</v>
       </c>
@@ -71611,8 +72268,11 @@
       <c r="ES220">
         <v>0.1821668264621263</v>
       </c>
+      <c r="ET220">
+        <v>0.1821668264621263</v>
+      </c>
     </row>
-    <row r="221" spans="1:149">
+    <row r="221" spans="1:150">
       <c r="A221" s="1">
         <v>45747</v>
       </c>
@@ -71652,8 +72312,11 @@
       <c r="ES221">
         <v>0.3062494018566441</v>
       </c>
+      <c r="ET221">
+        <v>0.3062494018566441</v>
+      </c>
     </row>
-    <row r="222" spans="1:149">
+    <row r="222" spans="1:150">
       <c r="A222" s="1">
         <v>45838</v>
       </c>
@@ -71690,8 +72353,11 @@
       <c r="ES222">
         <v>-0.2766911554241067</v>
       </c>
+      <c r="ET222">
+        <v>-0.2099036351493167</v>
+      </c>
     </row>
-    <row r="223" spans="1:149">
+    <row r="223" spans="1:150">
       <c r="A223" s="1">
         <v>45930</v>
       </c>
@@ -71725,8 +72391,11 @@
       <c r="ES223">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:149">
+    <row r="224" spans="1:150">
       <c r="A224" s="1">
         <v>46022</v>
       </c>
@@ -71757,8 +72426,11 @@
       <c r="ES224">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET224">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="225" spans="1:149">
+    <row r="225" spans="1:150">
       <c r="A225" s="1">
         <v>46112</v>
       </c>
@@ -71786,8 +72458,11 @@
       <c r="ES225">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET225">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="226" spans="1:149">
+    <row r="226" spans="1:150">
       <c r="A226" s="1">
         <v>46203</v>
       </c>
@@ -71812,8 +72487,11 @@
       <c r="ES226">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET226">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="227" spans="1:149">
+    <row r="227" spans="1:150">
       <c r="A227" s="1">
         <v>46295</v>
       </c>
@@ -71835,8 +72513,11 @@
       <c r="ES227">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET227">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="228" spans="1:149">
+    <row r="228" spans="1:150">
       <c r="A228" s="1">
         <v>46387</v>
       </c>
@@ -71855,8 +72536,11 @@
       <c r="ES228">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET228">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="229" spans="1:149">
+    <row r="229" spans="1:150">
       <c r="A229" s="1">
         <v>46477</v>
       </c>
@@ -71872,8 +72556,11 @@
       <c r="ES229">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET229">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="230" spans="1:149">
+    <row r="230" spans="1:150">
       <c r="A230" s="1">
         <v>46568</v>
       </c>
@@ -71886,8 +72573,11 @@
       <c r="ES230">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET230">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="231" spans="1:149">
+    <row r="231" spans="1:150">
       <c r="A231" s="1">
         <v>46660</v>
       </c>
@@ -71897,13 +72587,27 @@
       <c r="ES231">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET231">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="232" spans="1:149">
+    <row r="232" spans="1:150">
       <c r="A232" s="1">
         <v>46752</v>
       </c>
       <c r="ES232">
         <v>-0.09587373626955231</v>
+      </c>
+      <c r="ET232">
+        <v>-0.04181509226822702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:150">
+      <c r="A233" s="1">
+        <v>46843</v>
+      </c>
+      <c r="ET233">
+        <v>-0.04181509226822702</v>
       </c>
     </row>
   </sheetData>
